--- a/DirectoryService/DirectoryService/DataSources/ConstructionObjects.xlsx
+++ b/DirectoryService/DirectoryService/DataSources/ConstructionObjects.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Объект 1</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>BUDGET</t>
+  </si>
+  <si>
+    <t>S-QWERTY</t>
+  </si>
+  <si>
+    <t>Объект 777</t>
   </si>
 </sst>
 </file>
@@ -387,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +463,20 @@
         <v>99.677999999999997</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>374.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
